--- a/data/trans_orig/P05A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>150606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131420</v>
+        <v>129759</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174051</v>
+        <v>172107</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3178843677912478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2773875702510281</v>
+        <v>0.2738829928140662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3673707151518815</v>
+        <v>0.3632663872125013</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -765,19 +765,19 @@
         <v>102617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85186</v>
+        <v>85997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117956</v>
+        <v>119983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3346060609703765</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2777683483708414</v>
+        <v>0.2804123990522367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3846209342246175</v>
+        <v>0.3912303203743586</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -786,19 +786,19 @@
         <v>253223</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228769</v>
+        <v>227644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>282333</v>
+        <v>280644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3244551544725674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2931220150692483</v>
+        <v>0.2916801454470551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617540238121791</v>
+        <v>0.3595889582537311</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>323170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>299725</v>
+        <v>301669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342356</v>
+        <v>344017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6821156322087522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6326292848481182</v>
+        <v>0.6367336127874986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7226124297489719</v>
+        <v>0.7261170071859337</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>204063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188724</v>
+        <v>186697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221494</v>
+        <v>220683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6653939390296235</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6153790657753825</v>
+        <v>0.6087696796256412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7222316516291585</v>
+        <v>0.7195876009477631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>508</v>
@@ -857,19 +857,19 @@
         <v>527234</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>498124</v>
+        <v>499813</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>551688</v>
+        <v>552813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6755448455274325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6382459761878208</v>
+        <v>0.6404110417462696</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7068779849307516</v>
+        <v>0.708319854552945</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>115189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96853</v>
+        <v>97856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132932</v>
+        <v>133451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3139240270882691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2639522097781724</v>
+        <v>0.2666858111444813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3622789804490382</v>
+        <v>0.3636907508332071</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -982,19 +982,19 @@
         <v>111358</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93886</v>
+        <v>93648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129144</v>
+        <v>128520</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2994577105217395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2524733255173947</v>
+        <v>0.2518331076303896</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3472863174753404</v>
+        <v>0.3456086260448475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>213</v>
@@ -1003,19 +1003,19 @@
         <v>226547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>202244</v>
+        <v>201573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253885</v>
+        <v>251150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3066425948916314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2737465122407819</v>
+        <v>0.2728385591786008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3436461799706841</v>
+        <v>0.3399431431589286</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>251745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234002</v>
+        <v>233483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270081</v>
+        <v>269078</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6860759729117309</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6377210195509622</v>
+        <v>0.6363092491667928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.736047790221828</v>
+        <v>0.7333141888555187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -1053,19 +1053,19 @@
         <v>260507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>242721</v>
+        <v>243345</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277979</v>
+        <v>278217</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7005422894782605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6527136825246596</v>
+        <v>0.6543913739551525</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7475266744826057</v>
+        <v>0.7481668923696104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>500</v>
@@ -1074,19 +1074,19 @@
         <v>512252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>484914</v>
+        <v>487649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>536555</v>
+        <v>537226</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6933574051083686</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6563538200293159</v>
+        <v>0.6600568568410714</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7262534877592182</v>
+        <v>0.7271614408213992</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>159854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138757</v>
+        <v>138225</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183740</v>
+        <v>181926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2947214678958892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2558255280251998</v>
+        <v>0.2548443749271389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3387608693106615</v>
+        <v>0.3354165470730001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1199,19 +1199,19 @@
         <v>62721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49394</v>
+        <v>51884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74559</v>
+        <v>76581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3738261337880738</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2943913896499386</v>
+        <v>0.3092342589470192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4443816705992203</v>
+        <v>0.4564331546311821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -1220,19 +1220,19 @@
         <v>222575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>197953</v>
+        <v>199220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>248003</v>
+        <v>249430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3134103917016759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2787396184052285</v>
+        <v>0.2805239289546725</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3492162078560275</v>
+        <v>0.3512248941146884</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>382535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>358649</v>
+        <v>360463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403632</v>
+        <v>404164</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7052785321041108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6612391306893385</v>
+        <v>0.6645834529269998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7441744719748002</v>
+        <v>0.745155625072861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>104</v>
@@ -1270,19 +1270,19 @@
         <v>105061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93223</v>
+        <v>91201</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118388</v>
+        <v>115898</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6261738662119262</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5556183294007797</v>
+        <v>0.5435668453688181</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7056086103500613</v>
+        <v>0.6907657410529811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>482</v>
@@ -1291,19 +1291,19 @@
         <v>487596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>462168</v>
+        <v>460741</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>512218</v>
+        <v>510951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6865896082983241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6507837921439726</v>
+        <v>0.6487751058853118</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7212603815947717</v>
+        <v>0.7194760710453277</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>360409</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>326063</v>
+        <v>329434</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>387810</v>
+        <v>392285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2910434287704738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2633078006193754</v>
+        <v>0.2660298131980948</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3131708422269845</v>
+        <v>0.3167841390543079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>249</v>
@@ -1416,19 +1416,19 @@
         <v>253141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228845</v>
+        <v>229265</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279621</v>
+        <v>280386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3543976462422735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3203828672289326</v>
+        <v>0.3209706673075365</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3914696906628737</v>
+        <v>0.3925414284510085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>605</v>
@@ -1437,19 +1437,19 @@
         <v>613550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>573580</v>
+        <v>574110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>654382</v>
+        <v>654663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3142189541612502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2937488987922963</v>
+        <v>0.2940204055436269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3351303232751257</v>
+        <v>0.3352738970420514</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>877925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>850524</v>
+        <v>846049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>912271</v>
+        <v>908900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7089565712295262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.686829157773016</v>
+        <v>0.6832158609456924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7366921993806247</v>
+        <v>0.7339701868019053</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -1487,19 +1487,19 @@
         <v>461144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>434664</v>
+        <v>433899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>485440</v>
+        <v>485020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6456023537577265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6085303093371263</v>
+        <v>0.6074585715489913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6796171327710675</v>
+        <v>0.6790293326924632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1313</v>
@@ -1508,19 +1508,19 @@
         <v>1339070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1298238</v>
+        <v>1297957</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1379040</v>
+        <v>1378510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6857810458387498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6648696767248744</v>
+        <v>0.6647261029579485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7062511012077037</v>
+        <v>0.7059795944563731</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>112106</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95104</v>
+        <v>93150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129685</v>
+        <v>129659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3197958941158937</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2712963795481323</v>
+        <v>0.265722608969802</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3699426448979204</v>
+        <v>0.3698670282889162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -1633,19 +1633,19 @@
         <v>218069</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192648</v>
+        <v>194574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240066</v>
+        <v>241022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3834169601166729</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3387201625104099</v>
+        <v>0.3421065482366297</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.422092654838126</v>
+        <v>0.423773449651669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>311</v>
@@ -1654,19 +1654,19 @@
         <v>330175</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303346</v>
+        <v>301709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>362271</v>
+        <v>359394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3591566235073479</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3299724519505852</v>
+        <v>0.3281922904259424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3940697200609629</v>
+        <v>0.3909398532913934</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>238449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220870</v>
+        <v>220896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>255451</v>
+        <v>257405</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6802041058841063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6300573551020795</v>
+        <v>0.6301329717110841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7287036204518677</v>
+        <v>0.7342773910301978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>337</v>
@@ -1704,19 +1704,19 @@
         <v>350683</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>328686</v>
+        <v>327730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>376104</v>
+        <v>374178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6165830398833272</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5779073451618738</v>
+        <v>0.576226550348331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.66127983748959</v>
+        <v>0.6578934517633704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>568</v>
@@ -1725,19 +1725,19 @@
         <v>589132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>557036</v>
+        <v>559913</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>615961</v>
+        <v>617598</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.640843376492652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6059302799390373</v>
+        <v>0.6090601467086066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6700275480494148</v>
+        <v>0.6718077095740574</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>69214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56339</v>
+        <v>54307</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84581</v>
+        <v>84261</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2321053666574221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1889300355940217</v>
+        <v>0.1821155018997062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2836375663268069</v>
+        <v>0.2825642044463009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>408</v>
@@ -1850,19 +1850,19 @@
         <v>413711</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>380935</v>
+        <v>382523</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>445714</v>
+        <v>447317</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3312976045885888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3050504999821251</v>
+        <v>0.3063219165127432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3569252020617342</v>
+        <v>0.3582086716267099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>479</v>
@@ -1871,19 +1871,19 @@
         <v>482925</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>448233</v>
+        <v>448300</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>519586</v>
+        <v>519745</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3121767659193966</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2897508875113961</v>
+        <v>0.2897939814449986</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3358758226955966</v>
+        <v>0.3359783468074554</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>228987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213620</v>
+        <v>213940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241862</v>
+        <v>243894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7678946333425779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7163624336731931</v>
+        <v>0.7174357955536993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8110699644059784</v>
+        <v>0.8178844981002937</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>830</v>
@@ -1921,19 +1921,19 @@
         <v>835049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>803046</v>
+        <v>801443</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>867825</v>
+        <v>866237</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6687023954114112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6430747979382657</v>
+        <v>0.6417913283732901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6949495000178746</v>
+        <v>0.6936780834872567</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1065</v>
@@ -1942,19 +1942,19 @@
         <v>1064035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1027374</v>
+        <v>1027215</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1098727</v>
+        <v>1098660</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6878232340806034</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6641241773044035</v>
+        <v>0.6640216531925447</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.710249112488604</v>
+        <v>0.7102060185550014</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>967378</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>912085</v>
+        <v>910325</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1023665</v>
+        <v>1018091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.295817209269579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2789087198618763</v>
+        <v>0.278370670528951</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3130290986733634</v>
+        <v>0.311324608055339</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1128</v>
@@ -2067,19 +2067,19 @@
         <v>1161617</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1109092</v>
+        <v>1105504</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1219811</v>
+        <v>1219779</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.343864643502296</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3283160487803773</v>
+        <v>0.3272537368921136</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.361091266879757</v>
+        <v>0.3610816663867235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2067</v>
@@ -2088,19 +2088,19 @@
         <v>2128996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2049122</v>
+        <v>2053463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2204996</v>
+        <v>2203163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3202309465325591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3082168178035197</v>
+        <v>0.3088697903231003</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3316624261657264</v>
+        <v>0.3313866840036556</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2302812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2246525</v>
+        <v>2252099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2358105</v>
+        <v>2359865</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.704182790730421</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6869709013266366</v>
+        <v>0.6886753919446611</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7210912801381237</v>
+        <v>0.721629329471049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2168</v>
@@ -2138,19 +2138,19 @@
         <v>2216507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2158313</v>
+        <v>2158345</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2269032</v>
+        <v>2272620</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6561353564977039</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6389087331202429</v>
+        <v>0.6389183336132765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6716839512196227</v>
+        <v>0.6727462631078864</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4436</v>
@@ -2159,19 +2159,19 @@
         <v>4519318</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4443318</v>
+        <v>4445151</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4599192</v>
+        <v>4594851</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.679769053467441</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6683375738342736</v>
+        <v>0.6686133159963444</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6917831821964803</v>
+        <v>0.6911302096768998</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>197198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176105</v>
+        <v>176297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217055</v>
+        <v>216344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4510357193069374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4027928005856931</v>
+        <v>0.4032303223364799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4964530923477506</v>
+        <v>0.4948282245567001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -2526,19 +2526,19 @@
         <v>134896</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>117275</v>
+        <v>116539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>151986</v>
+        <v>152405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4289842899715561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3729465052739488</v>
+        <v>0.3706075813483979</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4833334020470748</v>
+        <v>0.4846653207526891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>305</v>
@@ -2547,19 +2547,19 @@
         <v>332094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>302184</v>
+        <v>299790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>360075</v>
+        <v>359404</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4418106450306933</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4020193779521137</v>
+        <v>0.3988341172672952</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4790363663867517</v>
+        <v>0.4781436002327875</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>240013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220156</v>
+        <v>220867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261106</v>
+        <v>260914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5489642806930627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.503546907652249</v>
+        <v>0.5051717754432998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5972071994143069</v>
+        <v>0.59676967766352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -2597,19 +2597,19 @@
         <v>179558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162468</v>
+        <v>162049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197179</v>
+        <v>197915</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5710157100284439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5166665979529252</v>
+        <v>0.5153346792473111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6270534947260515</v>
+        <v>0.6293924186516023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>382</v>
@@ -2618,19 +2618,19 @@
         <v>419571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>391590</v>
+        <v>392261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449481</v>
+        <v>451875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5581893549693067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5209636336132483</v>
+        <v>0.5218563997672127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5979806220478863</v>
+        <v>0.6011658827327042</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>168906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148207</v>
+        <v>149867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191666</v>
+        <v>191243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4033126030734022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3538866307686134</v>
+        <v>0.3578509961949635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4576591316875002</v>
+        <v>0.4566477933870619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -2743,19 +2743,19 @@
         <v>140448</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120198</v>
+        <v>121485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159079</v>
+        <v>160753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4176367444013339</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3574210297834477</v>
+        <v>0.3612491089268132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.473037891066739</v>
+        <v>0.478015633132696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>279</v>
@@ -2764,19 +2764,19 @@
         <v>309354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>281287</v>
+        <v>283642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>340208</v>
+        <v>341408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4096921092091214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3725215504225083</v>
+        <v>0.3756409343497677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4505533400600567</v>
+        <v>0.452143267154522</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>249891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>227131</v>
+        <v>227554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>270590</v>
+        <v>268930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5966873969265978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5423408683124998</v>
+        <v>0.5433522066129381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6461133692313866</v>
+        <v>0.6421490038050366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>176</v>
@@ -2814,19 +2814,19 @@
         <v>195844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>177213</v>
+        <v>175539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>216094</v>
+        <v>214807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5823632555986661</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5269621089332611</v>
+        <v>0.521984366867304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6425789702165526</v>
+        <v>0.6387508910731868</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>400</v>
@@ -2835,19 +2835,19 @@
         <v>445735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>414881</v>
+        <v>413681</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>473802</v>
+        <v>471447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5903078907908785</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5494466599399435</v>
+        <v>0.547856732845478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6274784495774917</v>
+        <v>0.6243590656502324</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>258335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233652</v>
+        <v>232667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>284893</v>
+        <v>283820</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4114457158068682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3721335148676669</v>
+        <v>0.3705636571885687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4537439600975873</v>
+        <v>0.4520344306270256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -2960,19 +2960,19 @@
         <v>103684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87403</v>
+        <v>87857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121484</v>
+        <v>119249</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4001448564827186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3373134412407608</v>
+        <v>0.3390640024147764</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4688407779333779</v>
+        <v>0.4602145015162382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -2981,19 +2981,19 @@
         <v>362019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333017</v>
+        <v>333431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>390912</v>
+        <v>390721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4081443932737582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3754472096960849</v>
+        <v>0.3759135791492143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4407188850490188</v>
+        <v>0.4405027256820588</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>369537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>342979</v>
+        <v>344052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>394220</v>
+        <v>395205</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5885542841931317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5462560399024126</v>
+        <v>0.5479655693729742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.627866485132333</v>
+        <v>0.6294363428114311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -3031,19 +3031,19 @@
         <v>155432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>137632</v>
+        <v>139867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171713</v>
+        <v>171259</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5998551435172814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5311592220666221</v>
+        <v>0.5397854984837617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6626865587592391</v>
+        <v>0.6609359975852234</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -3052,19 +3052,19 @@
         <v>524969</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>496076</v>
+        <v>496267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553971</v>
+        <v>553557</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5918556067262418</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5592811149509812</v>
+        <v>0.5594972743179412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6245527903039149</v>
+        <v>0.6240864208507857</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>463352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>430536</v>
+        <v>427637</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>499143</v>
+        <v>497273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4011222225131539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3727131965020551</v>
+        <v>0.3702037380612459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4321067927208061</v>
+        <v>0.4304878939767909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>283</v>
@@ -3177,19 +3177,19 @@
         <v>304062</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>275772</v>
+        <v>278361</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>334867</v>
+        <v>332074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.397157272476342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3602049577812153</v>
+        <v>0.3635871453975964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.437393659550743</v>
+        <v>0.4337445292639108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>717</v>
@@ -3198,19 +3198,19 @@
         <v>767414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>721745</v>
+        <v>723043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>809523</v>
+        <v>812763</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3995418104662802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3757650026154715</v>
+        <v>0.3764406166327489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4214651692231958</v>
+        <v>0.4231519024953366</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>691787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>655996</v>
+        <v>657866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>724603</v>
+        <v>727502</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5988777774868461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5678932072791942</v>
+        <v>0.569512106023209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6272868034979455</v>
+        <v>0.6297962619387542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>427</v>
@@ -3248,19 +3248,19 @@
         <v>461535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>430730</v>
+        <v>433523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>489825</v>
+        <v>487236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.602842727523658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5626063404492569</v>
+        <v>0.5662554707360893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6397950422187847</v>
+        <v>0.6364128546024036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1072</v>
@@ -3269,19 +3269,19 @@
         <v>1153321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1111212</v>
+        <v>1107972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1198990</v>
+        <v>1197692</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6004581895337198</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5785348307768042</v>
+        <v>0.5768480975046634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.624234997384529</v>
+        <v>0.6235593833672511</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>173931</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153571</v>
+        <v>153237</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195928</v>
+        <v>196639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3406424067729811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.300768271298637</v>
+        <v>0.3001147839851611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3837240620985633</v>
+        <v>0.3851159664419561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>254</v>
@@ -3394,19 +3394,19 @@
         <v>276336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>251280</v>
+        <v>248174</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>304151</v>
+        <v>303275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3633296050528483</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3303860375802519</v>
+        <v>0.3263011547341053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3999003370292342</v>
+        <v>0.3987491639292044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>422</v>
@@ -3415,19 +3415,19 @@
         <v>450267</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413925</v>
+        <v>416930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>485877</v>
+        <v>484499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3542166831114432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3256269977972488</v>
+        <v>0.3279913260760623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3822307111556316</v>
+        <v>0.3811469113049223</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>336665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>314668</v>
+        <v>313957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>357025</v>
+        <v>357359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6593575932270189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6162759379014366</v>
+        <v>0.6148840335580441</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6992317287013629</v>
+        <v>0.699885216014839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>448</v>
@@ -3465,19 +3465,19 @@
         <v>484230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>456415</v>
+        <v>457291</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>509286</v>
+        <v>512392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6366703949471517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6000996629707658</v>
+        <v>0.6012508360707955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6696139624197481</v>
+        <v>0.6736988452658947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>767</v>
@@ -3486,19 +3486,19 @@
         <v>820895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>785285</v>
+        <v>786663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>857237</v>
+        <v>854232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6457833168885568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6177692888443684</v>
+        <v>0.6188530886950777</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6743730022027512</v>
+        <v>0.6720086739239377</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>96914</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82057</v>
+        <v>80427</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112261</v>
+        <v>112008</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.363133115013599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3074642518330112</v>
+        <v>0.3013594780753168</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4206389024172493</v>
+        <v>0.419689242693813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>430</v>
@@ -3611,19 +3611,19 @@
         <v>455143</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>422976</v>
+        <v>421766</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>485536</v>
+        <v>487443</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4106860922713277</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3816615000799966</v>
+        <v>0.3805694147715797</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4381108354270796</v>
+        <v>0.4398308617845049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>527</v>
@@ -3632,19 +3632,19 @@
         <v>552057</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>515756</v>
+        <v>517465</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>590854</v>
+        <v>589884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4014571353926976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.375058997843539</v>
+        <v>0.3763021527487214</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4296704561814279</v>
+        <v>0.4289656159290431</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>169968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154621</v>
+        <v>154874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184825</v>
+        <v>186455</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.636866884986401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5793610975827507</v>
+        <v>0.5803107573061871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6925357481669887</v>
+        <v>0.6986405219246834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>613</v>
@@ -3682,19 +3682,19 @@
         <v>653107</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>622714</v>
+        <v>620807</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>685274</v>
+        <v>686484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5893139077286723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5618891645729205</v>
+        <v>0.5601691382154951</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6183384999200036</v>
+        <v>0.6194305852284204</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>781</v>
@@ -3703,19 +3703,19 @@
         <v>823075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>784278</v>
+        <v>785248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>859376</v>
+        <v>857667</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5985428646073024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.570329543818572</v>
+        <v>0.5710343840709567</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.624941002156461</v>
+        <v>0.6236978472512785</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1358635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1304757</v>
+        <v>1291672</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1426696</v>
+        <v>1417912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3976691205291926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3818992033603303</v>
+        <v>0.3780690998102093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4175905387597749</v>
+        <v>0.4150192224455784</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1312</v>
@@ -3828,19 +3828,19 @@
         <v>1414569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1355195</v>
+        <v>1353440</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1471520</v>
+        <v>1473087</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3991138096486741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.38236194352265</v>
+        <v>0.3818665686931972</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.415182342118433</v>
+        <v>0.4156244067976604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2592</v>
@@ -3849,19 +3849,19 @@
         <v>2773204</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2690770</v>
+        <v>2693741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2860222</v>
+        <v>2862150</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3984047251103299</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3865621404603121</v>
+        <v>0.3869889639115495</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4109059358322651</v>
+        <v>0.4111830112780805</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2057861</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1989800</v>
+        <v>1998584</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2111739</v>
+        <v>2124824</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6023308794708074</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5824094612402251</v>
+        <v>0.5849807775544219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6181007966396698</v>
+        <v>0.621930900189791</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1973</v>
@@ -3899,19 +3899,19 @@
         <v>2129705</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2072754</v>
+        <v>2071187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2189079</v>
+        <v>2190834</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6008861903513258</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.584817657881567</v>
+        <v>0.5843755932023397</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6176380564773503</v>
+        <v>0.6181334313068029</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3893</v>
@@ -3920,19 +3920,19 @@
         <v>4187566</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4100548</v>
+        <v>4098620</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4270000</v>
+        <v>4267029</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.60159527488967</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5890940641677348</v>
+        <v>0.5888169887219195</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.613437859539688</v>
+        <v>0.6130110360884505</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>165675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143928</v>
+        <v>145888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185578</v>
+        <v>187886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3861058344627079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3354236984402044</v>
+        <v>0.3399913313218921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4324901219785988</v>
+        <v>0.4378683250404286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -4287,19 +4287,19 @@
         <v>142043</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123769</v>
+        <v>122807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163221</v>
+        <v>163712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4092808049506472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3566250858231749</v>
+        <v>0.3538550969865289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4703022434998033</v>
+        <v>0.4717171324400912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>288</v>
@@ -4308,19 +4308,19 @@
         <v>307718</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>278542</v>
+        <v>277699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337641</v>
+        <v>337678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.396468546780036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3588772736126208</v>
+        <v>0.3577916799308289</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4350214690078712</v>
+        <v>0.4350696055914114</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>263417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243514</v>
+        <v>241206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285164</v>
+        <v>283204</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6138941655372921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5675098780214013</v>
+        <v>0.5621316749595709</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6645763015597957</v>
+        <v>0.6600086686781078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -4358,19 +4358,19 @@
         <v>205012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183834</v>
+        <v>183343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223286</v>
+        <v>224248</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5907191950493528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5296977565001966</v>
+        <v>0.5282828675599091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6433749141768251</v>
+        <v>0.6461449030134713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>440</v>
@@ -4379,19 +4379,19 @@
         <v>468429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>438506</v>
+        <v>438469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>497605</v>
+        <v>498448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.603531453219964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5649785309921288</v>
+        <v>0.5649303944085886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6411227263873792</v>
+        <v>0.6422083200691712</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>138331</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120561</v>
+        <v>118903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160923</v>
+        <v>157893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3667053038680792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3195992283739645</v>
+        <v>0.3152022556129742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4265944325248148</v>
+        <v>0.4185625244024616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -4504,19 +4504,19 @@
         <v>144182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127162</v>
+        <v>125706</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165493</v>
+        <v>165377</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3873017430991954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3415823801947704</v>
+        <v>0.337671229209128</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4445471186914268</v>
+        <v>0.4442356030992753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>266</v>
@@ -4525,19 +4525,19 @@
         <v>282513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256460</v>
+        <v>256055</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307198</v>
+        <v>310611</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3769354587123279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3421751217695982</v>
+        <v>0.3416339933206184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4098711261264056</v>
+        <v>0.4144241675085198</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>238896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216304</v>
+        <v>219334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>256666</v>
+        <v>258324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6332946961319208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5734055674751851</v>
+        <v>0.5814374755975384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6804007716260355</v>
+        <v>0.6847977443870258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>216</v>
@@ -4575,19 +4575,19 @@
         <v>228091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>206780</v>
+        <v>206896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245111</v>
+        <v>246567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6126982569008046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5554528813085734</v>
+        <v>0.5557643969007247</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6584176198052296</v>
+        <v>0.6623287707908719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>440</v>
@@ -4596,19 +4596,19 @@
         <v>466987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>442302</v>
+        <v>438889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>493040</v>
+        <v>493445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6230645412876721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5901288738735944</v>
+        <v>0.5855758324914802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6578248782304017</v>
+        <v>0.6583660066793815</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>188323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166319</v>
+        <v>165889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212306</v>
+        <v>210842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3608305379403387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3186709533901611</v>
+        <v>0.3178464629226976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.406783700006366</v>
+        <v>0.4039779241378579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -4721,19 +4721,19 @@
         <v>58548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45861</v>
+        <v>44982</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71397</v>
+        <v>70284</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.352437998138555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2760693225827247</v>
+        <v>0.2707726665191189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4297866626262551</v>
+        <v>0.4230867998708651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>235</v>
@@ -4742,19 +4742,19 @@
         <v>246870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221575</v>
+        <v>220543</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>271798</v>
+        <v>272407</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3588042032094596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3220395668035673</v>
+        <v>0.3205405907642782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.395034436969727</v>
+        <v>0.3959194534441813</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>333591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309608</v>
+        <v>311072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355595</v>
+        <v>356025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6391694620596613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.593216299993634</v>
+        <v>0.5960220758621421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6813290466098391</v>
+        <v>0.6821535370773023</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -4792,19 +4792,19 @@
         <v>107575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94726</v>
+        <v>95839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120262</v>
+        <v>121141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.647562001861445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5702133373737449</v>
+        <v>0.5769132001291348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7239306774172752</v>
+        <v>0.7292273334808811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>420</v>
@@ -4813,19 +4813,19 @@
         <v>441166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>416238</v>
+        <v>415629</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>466461</v>
+        <v>467493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6411957967905404</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.604965563030273</v>
+        <v>0.6040805465558188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6779604331964325</v>
+        <v>0.6794594092357218</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>411381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>381178</v>
+        <v>381135</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>444819</v>
+        <v>448643</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3578351066867273</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3315631065069528</v>
+        <v>0.3315259130866899</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3869205261881402</v>
+        <v>0.3902474843999819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>293</v>
@@ -4938,19 +4938,19 @@
         <v>306949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>279594</v>
+        <v>280228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>336874</v>
+        <v>336321</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3716646586592577</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3385423841564802</v>
+        <v>0.3393099359109995</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4078995028536149</v>
+        <v>0.4072290735870514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>685</v>
@@ -4959,19 +4959,19 @@
         <v>718330</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>681205</v>
+        <v>670877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>764719</v>
+        <v>759955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3636166358385582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3448241908430864</v>
+        <v>0.3395960861687105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.387098902899387</v>
+        <v>0.3846873118064874</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>738257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>704819</v>
+        <v>700995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>768460</v>
+        <v>768503</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6421648933132726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6130794738118598</v>
+        <v>0.6097525156000183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6684368934930474</v>
+        <v>0.6684740869133101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>505</v>
@@ -5009,19 +5009,19 @@
         <v>518927</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>489002</v>
+        <v>489555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>546282</v>
+        <v>545648</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6283353413407423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5921004971463849</v>
+        <v>0.5927709264129485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6614576158435197</v>
+        <v>0.6606900640890003</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1216</v>
@@ -5030,19 +5030,19 @@
         <v>1257184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1210795</v>
+        <v>1215559</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1294309</v>
+        <v>1304637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6363833641614418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6129010971006134</v>
+        <v>0.6153126881935127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6551758091569138</v>
+        <v>0.6604039138312902</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>214685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>193752</v>
+        <v>189170</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>238963</v>
+        <v>236631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3458722831413633</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3121476383886811</v>
+        <v>0.3047651250699266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3849853138110906</v>
+        <v>0.3812280241346626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -5155,19 +5155,19 @@
         <v>269821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>243707</v>
+        <v>244238</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>298594</v>
+        <v>295783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3660035025260844</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3305804564398538</v>
+        <v>0.3313015457623247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4050334083848474</v>
+        <v>0.4012202825501437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -5176,19 +5176,19 @@
         <v>484506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>448871</v>
+        <v>446379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>518319</v>
+        <v>521897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.356801479082772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3305589210646397</v>
+        <v>0.3287238540778964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3817017715585893</v>
+        <v>0.3843373622939851</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>406021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>381743</v>
+        <v>384075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426954</v>
+        <v>431536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6541277168586367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6150146861889094</v>
+        <v>0.6187719758653374</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6878523616113189</v>
+        <v>0.6952348749300734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>446</v>
@@ -5226,19 +5226,19 @@
         <v>467388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>438615</v>
+        <v>441426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>493502</v>
+        <v>492971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6339964974739156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5949665916151526</v>
+        <v>0.5987797174498563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6694195435601462</v>
+        <v>0.6686984542376753</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>839</v>
@@ -5247,19 +5247,19 @@
         <v>873409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>839596</v>
+        <v>836018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>909044</v>
+        <v>911536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6431985209172281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6182982284414099</v>
+        <v>0.6156626377060149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.66944107893536</v>
+        <v>0.6712761459221029</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>98352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82759</v>
+        <v>83260</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113176</v>
+        <v>115756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3440358832669839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2894912222715612</v>
+        <v>0.2912427376516749</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3958904510497968</v>
+        <v>0.4049144981926448</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>340</v>
@@ -5372,19 +5372,19 @@
         <v>373272</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>341494</v>
+        <v>343292</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>406049</v>
+        <v>406694</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.345381215189609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3159779278796902</v>
+        <v>0.3176407926706939</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3757087072142116</v>
+        <v>0.3763059545202974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>433</v>
@@ -5393,19 +5393,19 @@
         <v>471624</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>434666</v>
+        <v>436157</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>508957</v>
+        <v>507354</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3450997928807319</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3180569184983086</v>
+        <v>0.3191475089860565</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3724171388688911</v>
+        <v>0.3712446643121465</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>187526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172702</v>
+        <v>170122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203119</v>
+        <v>202618</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.655964116733016</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6041095489502032</v>
+        <v>0.5950855018073551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7105087777284387</v>
+        <v>0.708757262348325</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>651</v>
@@ -5443,19 +5443,19 @@
         <v>707482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>674705</v>
+        <v>674060</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>739260</v>
+        <v>737462</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.654618784810391</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6242912927857884</v>
+        <v>0.6236940454797026</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6840220721203097</v>
+        <v>0.682359207329306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>829</v>
@@ -5464,19 +5464,19 @@
         <v>895007</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>857674</v>
+        <v>859277</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>931965</v>
+        <v>930474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6549002071192681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6275828611311089</v>
+        <v>0.6287553356878536</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6819430815016914</v>
+        <v>0.6808524910139436</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1216747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1159919</v>
+        <v>1165212</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1277145</v>
+        <v>1279625</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3595103821217402</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3427195057896917</v>
+        <v>0.3442835541862694</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3773562055746425</v>
+        <v>0.3780890236341463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1211</v>
@@ -5589,19 +5589,19 @@
         <v>1294815</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1237267</v>
+        <v>1238222</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1356974</v>
+        <v>1356219</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3668769448238449</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3505710383297463</v>
+        <v>0.3508416586687764</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.384489297216489</v>
+        <v>0.3842753035485362</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2363</v>
@@ -5610,19 +5610,19 @@
         <v>2511561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2430915</v>
+        <v>2430358</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2601290</v>
+        <v>2589117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3632708239530688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3516061558585313</v>
+        <v>0.351525635670753</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3762491057681346</v>
+        <v>0.3744884304604654</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2167708</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2107310</v>
+        <v>2104830</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2224536</v>
+        <v>2219243</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6404896178782598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6226437944253576</v>
+        <v>0.6219109763658534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6572804942103083</v>
+        <v>0.6557164458137305</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2113</v>
@@ -5660,19 +5660,19 @@
         <v>2234475</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2172316</v>
+        <v>2173071</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2292023</v>
+        <v>2291068</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6331230551761551</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6155107027835108</v>
+        <v>0.6157246964514637</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6494289616702537</v>
+        <v>0.6491583413312233</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4184</v>
@@ -5681,19 +5681,19 @@
         <v>4402183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4312454</v>
+        <v>4324627</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4482829</v>
+        <v>4483386</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6367291760469312</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6237508942318655</v>
+        <v>0.6255115695395345</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6483938441414687</v>
+        <v>0.648474364329247</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>127513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108515</v>
+        <v>107095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149961</v>
+        <v>147612</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2315821036752847</v>
+        <v>0.2315821036752848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1970777002337077</v>
+        <v>0.194499587062216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2723511773353605</v>
+        <v>0.2680844351233141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -6048,19 +6048,19 @@
         <v>118930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102274</v>
+        <v>101882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137197</v>
+        <v>138088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.244219710313424</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2100166760338902</v>
+        <v>0.2092128828839924</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2817300501361359</v>
+        <v>0.2835603420508166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -6069,19 +6069,19 @@
         <v>246443</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219036</v>
+        <v>221060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275858</v>
+        <v>274857</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2375133557486316</v>
+        <v>0.2375133557486317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2110993620320413</v>
+        <v>0.2130502874519028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2658621686350773</v>
+        <v>0.2648978380424784</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>423105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400657</v>
+        <v>403006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>442103</v>
+        <v>443523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7684178963247152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7276488226646396</v>
+        <v>0.731915564876686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8029222997662923</v>
+        <v>0.8055004129377841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -6119,19 +6119,19 @@
         <v>368049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349782</v>
+        <v>348891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>384705</v>
+        <v>385097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7557802896865758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7182699498638642</v>
+        <v>0.7164396579491833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7899833239661099</v>
+        <v>0.7907871171160076</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>955</v>
@@ -6140,19 +6140,19 @@
         <v>791154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761739</v>
+        <v>762740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>818561</v>
+        <v>816537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7624866442513685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7341378313649226</v>
+        <v>0.7351021619575216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7889006379679588</v>
+        <v>0.7869497125480973</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>82031</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65602</v>
+        <v>66103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99970</v>
+        <v>99810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1697625954920869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1357620400618722</v>
+        <v>0.1367995482478632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2068871962928927</v>
+        <v>0.2065546716823702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -6265,19 +6265,19 @@
         <v>103463</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87074</v>
+        <v>88642</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119510</v>
+        <v>119138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.244511189964318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2057780421047076</v>
+        <v>0.2094858433439553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2824336767568231</v>
+        <v>0.2815557586898187</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -6286,19 +6286,19 @@
         <v>185495</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>164890</v>
+        <v>162961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213597</v>
+        <v>209722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2046598858145444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1819261920861252</v>
+        <v>0.1797981338760607</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2356655481485744</v>
+        <v>0.2313901739010913</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>401181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383242</v>
+        <v>383402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417610</v>
+        <v>417109</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8302374045079131</v>
+        <v>0.8302374045079132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7931128037071072</v>
+        <v>0.7934453283176299</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8642379599381278</v>
+        <v>0.863200451752137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>452</v>
@@ -6336,19 +6336,19 @@
         <v>319680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303633</v>
+        <v>304005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336069</v>
+        <v>334501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7554888100356819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7175663232431768</v>
+        <v>0.7184442413101813</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7942219578952923</v>
+        <v>0.7905141566560446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>852</v>
@@ -6357,19 +6357,19 @@
         <v>720860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692758</v>
+        <v>696633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>741465</v>
+        <v>743394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7953401141854556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7643344518514269</v>
+        <v>0.7686098260989088</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.818073807913875</v>
+        <v>0.8202018661239393</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>99173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82247</v>
+        <v>81873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120002</v>
+        <v>119472</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2102856295248339</v>
+        <v>0.2102856295248338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1743958751310231</v>
+        <v>0.173602367274203</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2544508842552703</v>
+        <v>0.2533277569020226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -6482,19 +6482,19 @@
         <v>37985</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29856</v>
+        <v>28307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47174</v>
+        <v>48176</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2025883065833271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1592352682752839</v>
+        <v>0.1509734469534476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2515982414732717</v>
+        <v>0.2569422570482887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -6503,19 +6503,19 @@
         <v>137158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116545</v>
+        <v>116800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158093</v>
+        <v>158510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2080959656711396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1768226717830391</v>
+        <v>0.177208908952511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2398584092950964</v>
+        <v>0.2404915215994607</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>372439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351610</v>
+        <v>352140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>389365</v>
+        <v>389739</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7897143704751662</v>
+        <v>0.7897143704751661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7455491157447297</v>
+        <v>0.7466722430979772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8256041248689772</v>
+        <v>0.826397632725797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -6553,19 +6553,19 @@
         <v>149512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140323</v>
+        <v>139321</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157641</v>
+        <v>159190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.797411693416673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7484017585267284</v>
+        <v>0.7430577429517112</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8407647317247161</v>
+        <v>0.8490265530465525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -6574,19 +6574,19 @@
         <v>521951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>501016</v>
+        <v>500599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542564</v>
+        <v>542309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7919040343288605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7601415907049038</v>
+        <v>0.7595084784005393</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.823177328216961</v>
+        <v>0.8227910910474889</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>181880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156398</v>
+        <v>157649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208934</v>
+        <v>210842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1608523225426223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.138316423982202</v>
+        <v>0.1394228394755918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1847787244946813</v>
+        <v>0.1864661295439779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -6699,19 +6699,19 @@
         <v>181092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160420</v>
+        <v>162303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201862</v>
+        <v>205387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2102764062363263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1862730902882293</v>
+        <v>0.1884591279637191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2343937467449016</v>
+        <v>0.2384858405138739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>415</v>
@@ -6720,19 +6720,19 @@
         <v>362972</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>331505</v>
+        <v>327825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>398170</v>
+        <v>397639</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1822207688434892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.166423480346538</v>
+        <v>0.1645757574870024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1998909173592932</v>
+        <v>0.1996241885844301</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>948845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>921791</v>
+        <v>919883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>974327</v>
+        <v>973076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8391476774573775</v>
+        <v>0.8391476774573777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8152212755053185</v>
+        <v>0.8135338704560214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8616835760177975</v>
+        <v>0.860577160524408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>989</v>
@@ -6770,19 +6770,19 @@
         <v>680119</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>659349</v>
+        <v>655824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>700791</v>
+        <v>698908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7897235937636737</v>
+        <v>0.7897235937636738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7656062532550983</v>
+        <v>0.7615141594861261</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8137269097117704</v>
+        <v>0.811540872036281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1932</v>
@@ -6791,19 +6791,19 @@
         <v>1628965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1593767</v>
+        <v>1594298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1660432</v>
+        <v>1664112</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.817779231156511</v>
+        <v>0.8177792311565109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8001090826407068</v>
+        <v>0.80037581141557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8335765196534619</v>
+        <v>0.8354242425129977</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>105435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84640</v>
+        <v>88256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126110</v>
+        <v>126731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1856374861678484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1490237153105287</v>
+        <v>0.1553904554883002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2220381245595059</v>
+        <v>0.223132614673326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -6916,19 +6916,19 @@
         <v>166545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146596</v>
+        <v>146446</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186832</v>
+        <v>188300</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2004516166087879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.176440516916801</v>
+        <v>0.1762605332371328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2248685441429274</v>
+        <v>0.2266356676508623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -6937,19 +6937,19 @@
         <v>271981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>242689</v>
+        <v>243649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299445</v>
+        <v>301472</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1944366002562779</v>
+        <v>0.1944366002562778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1734964019969404</v>
+        <v>0.174182886799159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2140705345052176</v>
+        <v>0.2155195215257805</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>462529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>441854</v>
+        <v>441233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>483324</v>
+        <v>479708</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8143625138321516</v>
+        <v>0.8143625138321514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7779618754404946</v>
+        <v>0.7768673853266739</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8509762846894713</v>
+        <v>0.8446095445116999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1057</v>
@@ -6987,19 +6987,19 @@
         <v>664305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>644018</v>
+        <v>642550</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>684254</v>
+        <v>684404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7995483833912123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7751314558570724</v>
+        <v>0.7733643323491376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8235594830831989</v>
+        <v>0.8237394667628671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1501</v>
@@ -7008,19 +7008,19 @@
         <v>1126833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1099369</v>
+        <v>1097342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1156125</v>
+        <v>1155165</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8055633997437222</v>
+        <v>0.8055633997437219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7859294654947825</v>
+        <v>0.7844804784742195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8265035980030594</v>
+        <v>0.8258171132008411</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>41482</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27118</v>
+        <v>25248</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62754</v>
+        <v>62016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1748608169568599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1143113661912509</v>
+        <v>0.1064293542364333</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.26453144275877</v>
+        <v>0.2614184289281897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -7133,19 +7133,19 @@
         <v>122211</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100473</v>
+        <v>103544</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143016</v>
+        <v>145973</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1447519351550355</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1190047765190545</v>
+        <v>0.1226420897246055</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1693939139722969</v>
+        <v>0.1728957957555672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -7154,19 +7154,19 @@
         <v>163693</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137558</v>
+        <v>137899</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190008</v>
+        <v>194945</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1513562851593521</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1271905413380245</v>
+        <v>0.127505905555572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1756883171102953</v>
+        <v>0.1802526865021557</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>195746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174474</v>
+        <v>175212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210110</v>
+        <v>211980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.82513918304314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7354685572412296</v>
+        <v>0.7385815710718103</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8856886338087488</v>
+        <v>0.8935706457635667</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1013</v>
@@ -7204,19 +7204,19 @@
         <v>722070</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>701265</v>
+        <v>698308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>743808</v>
+        <v>740737</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8552480648449645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.830606086027703</v>
+        <v>0.8271042042444329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8809952234809455</v>
+        <v>0.8773579102753944</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1105</v>
@@ -7225,19 +7225,19 @@
         <v>917816</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>891501</v>
+        <v>886564</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>943951</v>
+        <v>943610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.848643714840648</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8243116828897047</v>
+        <v>0.8197473134978442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8728094586619755</v>
+        <v>0.872494094444428</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>637515</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>590393</v>
+        <v>590667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>686643</v>
+        <v>688505</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1852509017457594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1715580691677386</v>
+        <v>0.1716376919771501</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1995268571420272</v>
+        <v>0.2000677123446829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>974</v>
@@ -7350,19 +7350,19 @@
         <v>730227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>686430</v>
+        <v>685908</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>775212</v>
+        <v>773973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2009451034174572</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1888930188073986</v>
+        <v>0.1887494271271738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2133241502200952</v>
+        <v>0.2129833460399103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1571</v>
@@ -7371,19 +7371,19 @@
         <v>1367742</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1305982</v>
+        <v>1296391</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1441065</v>
+        <v>1430496</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1933116153230797</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1845827024633998</v>
+        <v>0.183227221436622</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2036748698855554</v>
+        <v>0.2021810534310164</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2803843</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2754715</v>
+        <v>2752853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2850965</v>
+        <v>2850691</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8147490982542407</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8004731428579726</v>
+        <v>0.7999322876553168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8284419308322615</v>
+        <v>0.8283623080228498</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4268</v>
@@ -7421,19 +7421,19 @@
         <v>2903735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2858750</v>
+        <v>2859989</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2947532</v>
+        <v>2948054</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7990548965825428</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7866758497799048</v>
+        <v>0.7870166539600896</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8111069811926015</v>
+        <v>0.8112505728728259</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6970</v>
@@ -7442,19 +7442,19 @@
         <v>5707578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5634255</v>
+        <v>5644824</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5769338</v>
+        <v>5778929</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8066883846769202</v>
+        <v>0.8066883846769204</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7963251301144444</v>
+        <v>0.7978189465689833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8154172975366002</v>
+        <v>0.8167727785633779</v>
       </c>
     </row>
     <row r="24">
